--- a/Guild Digital/Example CHT application/forms/app/stock_count.xlsx
+++ b/Guild Digital/Example CHT application/forms/app/stock_count.xlsx
@@ -8,9 +8,9 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="survey" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="choices" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="settings" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="survey" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="choices" sheetId="2" state="visible" r:id="rId4"/>
+    <sheet name="settings" sheetId="3" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="290">
   <si>
     <t xml:space="preserve">type</t>
   </si>
@@ -540,19 +540,10 @@
     <t xml:space="preserve">summary</t>
   </si>
   <si>
-    <t xml:space="preserve">Results/Summary page</t>
+    <t xml:space="preserve">&lt;h3 style="text-align:center; color:black; background-color:yellow;"&gt;Summary&lt;/h3&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">field-list summary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">s_note_vht_visit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;h1 style="text-align:center;"&gt;Stock Count&lt;i class="fa fa-user"&gt;&lt;/i&gt; &lt;/h1&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">h1 yellow</t>
   </si>
   <si>
     <r>
@@ -663,7 +654,36 @@
     <t xml:space="preserve">s_drugs</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;h4 style="text-align:center;background-color:#add8e6;"&gt;**Drugs **&lt;/h4&gt;</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF111111"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">&lt;h4 style="text-align:center;background-color:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">#FFA500;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF111111"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">"&gt;**Drugs **&lt;/h4&gt;</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">r_paracetamol</t>
@@ -929,7 +949,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yy"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -990,6 +1010,12 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF111111"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1074,59 +1100,43 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1134,7 +1144,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1142,23 +1164,27 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1234,25 +1260,132 @@
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="LibreOffice">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="ffffff"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="000000"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="ffffff"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="18a303"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="0369a3"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="a33e03"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8e03a3"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="c99c00"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="c9211e"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000ee"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="551a8b"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme>
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ1048576"/>
+  <dimension ref="A1:AMI1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B59" activeCellId="0" sqref="B59"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="C93" activeCellId="0" sqref="C93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="19.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="18.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="49.49"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="4" style="1" width="11.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="34.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="55.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="24.2"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="5" style="1" width="11.58"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2239,17 +2372,17 @@
       <c r="A56" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="B56" s="14" t="s">
+      <c r="B56" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="C56" s="14" t="s">
+      <c r="C56" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="D56" s="14" t="s">
+      <c r="D56" s="11" t="s">
         <v>98</v>
       </c>
       <c r="E56" s="12"/>
-      <c r="F56" s="15" t="s">
+      <c r="F56" s="11" t="s">
         <v>104</v>
       </c>
       <c r="G56" s="12"/>
@@ -2279,14 +2412,12 @@
       <c r="B57" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="C57" s="14" t="s">
+      <c r="C57" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="D57" s="14"/>
       <c r="E57" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="F57" s="15"/>
       <c r="G57" s="12"/>
       <c r="H57" s="12"/>
       <c r="I57" s="12"/>
@@ -2311,17 +2442,16 @@
       <c r="A58" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="B58" s="14" t="s">
+      <c r="B58" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="C58" s="16" t="s">
+      <c r="C58" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="D58" s="14" t="s">
+      <c r="D58" s="11" t="s">
         <v>98</v>
       </c>
       <c r="E58" s="13"/>
-      <c r="F58" s="15"/>
       <c r="G58" s="12"/>
       <c r="H58" s="12"/>
       <c r="I58" s="12"/>
@@ -2349,14 +2479,12 @@
       <c r="B59" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="C59" s="14" t="s">
+      <c r="C59" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="D59" s="14"/>
       <c r="E59" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="F59" s="15"/>
       <c r="G59" s="12"/>
       <c r="H59" s="12"/>
       <c r="I59" s="12"/>
@@ -2391,7 +2519,6 @@
         <v>98</v>
       </c>
       <c r="E60" s="12"/>
-      <c r="F60" s="15"/>
       <c r="G60" s="12"/>
       <c r="H60" s="12"/>
       <c r="I60" s="12"/>
@@ -2416,17 +2543,16 @@
       <c r="A61" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="B61" s="14" t="s">
+      <c r="B61" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="C61" s="14" t="s">
+      <c r="C61" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="D61" s="14" t="s">
+      <c r="D61" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="E61" s="14"/>
-      <c r="F61" s="15" t="s">
+      <c r="F61" s="11" t="s">
         <v>104</v>
       </c>
       <c r="G61" s="12"/>
@@ -2609,15 +2735,12 @@
       <c r="A72" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B72" s="14" t="s">
+      <c r="B72" s="11" t="s">
         <v>145</v>
       </c>
       <c r="C72" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="D72" s="14"/>
-      <c r="E72" s="14"/>
-      <c r="F72" s="15"/>
       <c r="G72" s="12"/>
       <c r="H72" s="12"/>
       <c r="I72" s="12"/>
@@ -2642,17 +2765,15 @@
       <c r="A73" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="B73" s="14" t="s">
+      <c r="B73" s="11" t="s">
         <v>147</v>
       </c>
       <c r="C73" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="D73" s="14" t="s">
+      <c r="D73" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="E73" s="14"/>
-      <c r="F73" s="15"/>
       <c r="G73" s="12"/>
       <c r="H73" s="12"/>
       <c r="I73" s="12"/>
@@ -2677,19 +2798,18 @@
       <c r="A74" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="B74" s="14" t="s">
+      <c r="B74" s="11" t="s">
         <v>150</v>
       </c>
       <c r="C74" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="D74" s="14" t="s">
+      <c r="D74" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="E74" s="14" t="s">
+      <c r="E74" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="F74" s="15"/>
       <c r="G74" s="12"/>
       <c r="H74" s="12"/>
       <c r="I74" s="12"/>
@@ -2714,17 +2834,15 @@
       <c r="A75" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="B75" s="14" t="s">
+      <c r="B75" s="11" t="s">
         <v>154</v>
       </c>
       <c r="C75" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="D75" s="14" t="s">
+      <c r="D75" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="E75" s="14"/>
-      <c r="F75" s="15"/>
       <c r="G75" s="12"/>
       <c r="H75" s="12"/>
       <c r="I75" s="12"/>
@@ -2749,11 +2867,7 @@
       <c r="A76" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="B76" s="14"/>
       <c r="C76" s="13"/>
-      <c r="D76" s="14"/>
-      <c r="E76" s="14"/>
-      <c r="F76" s="15"/>
       <c r="G76" s="12"/>
       <c r="H76" s="12"/>
       <c r="I76" s="12"/>
@@ -2780,358 +2894,155 @@
       </c>
     </row>
     <row r="80" s="11" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="15" t="s">
+      <c r="A80" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="B80" s="15" t="s">
+      <c r="B80" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="C80" s="15" t="s">
+      <c r="C80" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D80" s="15"/>
-      <c r="E80" s="15"/>
-      <c r="F80" s="15"/>
-      <c r="G80" s="15"/>
-      <c r="H80" s="15"/>
-      <c r="I80" s="15"/>
-      <c r="J80" s="15"/>
-      <c r="K80" s="15"/>
-      <c r="L80" s="15"/>
-      <c r="M80" s="15"/>
-      <c r="N80" s="15"/>
-      <c r="O80" s="15"/>
-      <c r="P80" s="15"/>
-      <c r="Q80" s="15"/>
-      <c r="R80" s="15"/>
-      <c r="S80" s="15"/>
-      <c r="T80" s="15"/>
-      <c r="U80" s="15"/>
-      <c r="V80" s="15"/>
-      <c r="W80" s="15"/>
-      <c r="X80" s="15"/>
-      <c r="Y80" s="15"/>
-      <c r="Z80" s="15"/>
-      <c r="AMH80" s="15"/>
-      <c r="AMI80" s="15"/>
-      <c r="AMJ80" s="15"/>
     </row>
     <row r="81" s="11" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="15" t="s">
+      <c r="A81" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="B81" s="15" t="s">
+      <c r="B81" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="C81" s="15"/>
-      <c r="D81" s="15"/>
-      <c r="E81" s="15"/>
-      <c r="F81" s="15"/>
-      <c r="G81" s="15"/>
-      <c r="H81" s="15"/>
-      <c r="I81" s="15" t="s">
+      <c r="I81" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="J81" s="15"/>
-      <c r="K81" s="15"/>
-      <c r="L81" s="15"/>
-      <c r="M81" s="15"/>
-      <c r="N81" s="15"/>
-      <c r="O81" s="15"/>
-      <c r="P81" s="15"/>
-      <c r="Q81" s="15"/>
-      <c r="R81" s="15"/>
-      <c r="S81" s="15"/>
-      <c r="T81" s="15"/>
-      <c r="U81" s="15"/>
-      <c r="V81" s="15"/>
-      <c r="W81" s="15"/>
-      <c r="X81" s="15"/>
-      <c r="Y81" s="15"/>
-      <c r="Z81" s="15"/>
-      <c r="AMH81" s="15"/>
-      <c r="AMI81" s="15"/>
-      <c r="AMJ81" s="15"/>
     </row>
     <row r="82" s="11" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="15" t="s">
+      <c r="A82" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="B82" s="15" t="s">
+      <c r="B82" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="C82" s="15"/>
-      <c r="D82" s="15"/>
-      <c r="E82" s="15"/>
-      <c r="F82" s="15"/>
-      <c r="G82" s="15"/>
-      <c r="H82" s="15"/>
-      <c r="I82" s="15" t="s">
+      <c r="I82" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="J82" s="15"/>
-      <c r="K82" s="15"/>
-      <c r="L82" s="15"/>
-      <c r="M82" s="15"/>
-      <c r="N82" s="15"/>
-      <c r="O82" s="15"/>
-      <c r="P82" s="15"/>
-      <c r="Q82" s="15"/>
-      <c r="R82" s="15"/>
-      <c r="S82" s="15"/>
-      <c r="T82" s="15"/>
-      <c r="U82" s="15"/>
-      <c r="V82" s="15"/>
-      <c r="W82" s="15"/>
-      <c r="X82" s="15"/>
-      <c r="Y82" s="15"/>
-      <c r="Z82" s="15"/>
-      <c r="AMH82" s="15"/>
-      <c r="AMI82" s="15"/>
-      <c r="AMJ82" s="15"/>
     </row>
     <row r="83" s="11" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="15" t="s">
+      <c r="A83" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="B83" s="15" t="s">
+      <c r="B83" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="C83" s="15"/>
-      <c r="D83" s="15"/>
-      <c r="E83" s="15"/>
-      <c r="F83" s="15"/>
-      <c r="G83" s="15"/>
-      <c r="H83" s="15"/>
-      <c r="I83" s="15" t="s">
+      <c r="I83" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="J83" s="15"/>
-      <c r="K83" s="15"/>
-      <c r="L83" s="15"/>
-      <c r="M83" s="15"/>
-      <c r="N83" s="15"/>
-      <c r="O83" s="15"/>
-      <c r="P83" s="15"/>
-      <c r="Q83" s="15"/>
-      <c r="R83" s="15"/>
-      <c r="S83" s="15"/>
-      <c r="T83" s="15"/>
-      <c r="U83" s="15"/>
-      <c r="V83" s="15"/>
-      <c r="W83" s="15"/>
-      <c r="X83" s="15"/>
-      <c r="Y83" s="15"/>
-      <c r="Z83" s="15"/>
-      <c r="AMH83" s="15"/>
-      <c r="AMI83" s="15"/>
-      <c r="AMJ83" s="15"/>
     </row>
     <row r="84" s="11" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="15" t="s">
+      <c r="A84" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="B84" s="15" t="s">
+      <c r="B84" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="C84" s="15"/>
-      <c r="D84" s="15"/>
-      <c r="E84" s="15"/>
-      <c r="F84" s="15"/>
-      <c r="G84" s="15"/>
-      <c r="H84" s="15"/>
-      <c r="I84" s="15" t="s">
+      <c r="I84" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="J84" s="15"/>
-      <c r="K84" s="15"/>
-      <c r="L84" s="15"/>
-      <c r="M84" s="15"/>
-      <c r="N84" s="15"/>
-      <c r="O84" s="15"/>
-      <c r="P84" s="15"/>
-      <c r="Q84" s="15"/>
-      <c r="R84" s="15"/>
-      <c r="S84" s="15"/>
-      <c r="T84" s="15"/>
-      <c r="U84" s="15"/>
-      <c r="V84" s="15"/>
-      <c r="W84" s="15"/>
-      <c r="X84" s="15"/>
-      <c r="Y84" s="15"/>
-      <c r="Z84" s="15"/>
-      <c r="AMH84" s="15"/>
-      <c r="AMI84" s="15"/>
-      <c r="AMJ84" s="15"/>
     </row>
     <row r="85" s="11" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="15" t="s">
+      <c r="A85" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="B85" s="15" t="s">
+      <c r="B85" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="C85" s="15" t="s">
+      <c r="C85" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="D85" s="15"/>
-      <c r="E85" s="15"/>
-      <c r="F85" s="15"/>
-      <c r="G85" s="15"/>
-      <c r="H85" s="15"/>
-      <c r="I85" s="15"/>
-      <c r="J85" s="15"/>
-      <c r="K85" s="15" t="s">
+      <c r="K85" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="L85" s="15"/>
-      <c r="M85" s="15"/>
-      <c r="N85" s="15" t="n">
+      <c r="N85" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="O85" s="15"/>
-      <c r="P85" s="15"/>
-      <c r="Q85" s="15"/>
-      <c r="R85" s="15"/>
-      <c r="S85" s="15"/>
-      <c r="T85" s="15"/>
-      <c r="U85" s="15"/>
-      <c r="V85" s="15"/>
-      <c r="W85" s="15"/>
-      <c r="X85" s="15"/>
-      <c r="Y85" s="15"/>
-      <c r="Z85" s="15"/>
-      <c r="AMH85" s="15"/>
-      <c r="AMI85" s="15"/>
-      <c r="AMJ85" s="15"/>
     </row>
     <row r="86" s="11" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="15" t="s">
+      <c r="A86" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="B86" s="15"/>
-      <c r="C86" s="15"/>
-      <c r="D86" s="15"/>
-      <c r="E86" s="15"/>
-      <c r="F86" s="15"/>
-      <c r="G86" s="15"/>
-      <c r="H86" s="15"/>
-      <c r="I86" s="15"/>
-      <c r="J86" s="15"/>
-      <c r="K86" s="15"/>
-      <c r="L86" s="15"/>
-      <c r="M86" s="15"/>
-      <c r="N86" s="15"/>
-      <c r="O86" s="15"/>
-      <c r="P86" s="15"/>
-      <c r="Q86" s="15"/>
-      <c r="R86" s="15"/>
-      <c r="S86" s="15"/>
-      <c r="T86" s="15"/>
-      <c r="U86" s="15"/>
-      <c r="V86" s="15"/>
-      <c r="W86" s="15"/>
-      <c r="X86" s="15"/>
-      <c r="Y86" s="15"/>
-      <c r="Z86" s="15"/>
-      <c r="AMH86" s="15"/>
-      <c r="AMI86" s="15"/>
-      <c r="AMJ86" s="15"/>
-    </row>
-    <row r="87" s="11" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="87" s="11" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="11" t="s">
         <v>13</v>
       </c>
       <c r="B87" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="C87" s="13" t="s">
+      <c r="C87" s="15" t="s">
         <v>172</v>
       </c>
       <c r="F87" s="11" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="88" s="11" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="15" t="s">
+    <row r="88" s="11" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A88" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="B88" s="15" t="s">
+      <c r="B88" s="16" t="s">
         <v>174</v>
       </c>
-      <c r="C88" s="15" t="s">
+      <c r="C88" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="E88" s="15"/>
-      <c r="F88" s="15" t="s">
+      <c r="E88" s="16"/>
+      <c r="F88" s="16"/>
+      <c r="G88" s="16"/>
+      <c r="H88" s="16"/>
+      <c r="I88" s="16"/>
+      <c r="J88" s="16"/>
+      <c r="K88" s="16"/>
+      <c r="M88" s="16"/>
+      <c r="N88" s="16"/>
+      <c r="O88" s="16"/>
+      <c r="P88" s="16"/>
+      <c r="Q88" s="16"/>
+      <c r="R88" s="16"/>
+      <c r="S88" s="16"/>
+      <c r="T88" s="16"/>
+      <c r="U88" s="16"/>
+      <c r="AMD88" s="16"/>
+      <c r="AME88" s="16"/>
+      <c r="AMF88" s="16"/>
+      <c r="AMG88" s="16"/>
+      <c r="AMH88" s="16"/>
+      <c r="AMI88" s="16"/>
+    </row>
+    <row r="89" s="11" customFormat="true" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A89" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="B89" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="G88" s="15"/>
-      <c r="H88" s="15"/>
-      <c r="I88" s="15"/>
-      <c r="J88" s="15"/>
-      <c r="K88" s="15"/>
-      <c r="M88" s="15"/>
-      <c r="N88" s="15"/>
-      <c r="O88" s="15"/>
-      <c r="P88" s="15"/>
-      <c r="Q88" s="15"/>
-      <c r="R88" s="15"/>
-      <c r="S88" s="15"/>
-      <c r="T88" s="15"/>
-      <c r="U88" s="15"/>
-      <c r="AMD88" s="15"/>
-      <c r="AME88" s="15"/>
-      <c r="AMF88" s="15"/>
-      <c r="AMG88" s="15"/>
-      <c r="AMH88" s="15"/>
-      <c r="AMI88" s="15"/>
-    </row>
-    <row r="89" s="11" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A89" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="B89" s="17" t="s">
+      <c r="C89" s="13" t="s">
         <v>177</v>
       </c>
-      <c r="C89" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="E89" s="17"/>
-      <c r="F89" s="17"/>
-      <c r="G89" s="17"/>
-      <c r="H89" s="17"/>
-      <c r="I89" s="17"/>
-      <c r="J89" s="17"/>
-      <c r="K89" s="17"/>
-      <c r="M89" s="17"/>
-      <c r="N89" s="17"/>
-      <c r="O89" s="17"/>
-      <c r="P89" s="17"/>
-      <c r="Q89" s="17"/>
-      <c r="R89" s="17"/>
-      <c r="S89" s="17"/>
-      <c r="T89" s="17"/>
-      <c r="U89" s="17"/>
-      <c r="AMD89" s="17"/>
-      <c r="AME89" s="17"/>
-      <c r="AMF89" s="17"/>
-      <c r="AMG89" s="17"/>
-      <c r="AMH89" s="17"/>
-      <c r="AMI89" s="17"/>
-    </row>
-    <row r="90" s="11" customFormat="true" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="90" s="11" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="11" t="s">
         <v>92</v>
       </c>
       <c r="B90" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="C90" s="13" t="s">
         <v>179</v>
       </c>
-      <c r="C90" s="13" t="s">
+      <c r="E90" s="11" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="91" s="11" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" s="11" customFormat="true" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="11" t="s">
         <v>92</v>
       </c>
@@ -3142,24 +3053,24 @@
         <v>182</v>
       </c>
       <c r="E91" s="11" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="92" s="11" customFormat="true" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="92" s="11" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="11" t="s">
         <v>92</v>
       </c>
       <c r="B92" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="C92" s="13" t="s">
         <v>184</v>
       </c>
-      <c r="C92" s="13" t="s">
+      <c r="E92" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="E92" s="11" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="93" s="11" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="93" s="11" customFormat="true" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="11" t="s">
         <v>92</v>
       </c>
@@ -3170,24 +3081,24 @@
         <v>187</v>
       </c>
       <c r="E93" s="11" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="94" s="11" customFormat="true" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="94" s="11" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="11" t="s">
         <v>92</v>
       </c>
       <c r="B94" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="C94" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="C94" s="13" t="s">
+      <c r="E94" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="E94" s="11" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="95" s="11" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="95" s="11" customFormat="true" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="11" t="s">
         <v>92</v>
       </c>
@@ -3198,7 +3109,7 @@
         <v>192</v>
       </c>
       <c r="E95" s="11" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="96" s="11" customFormat="true" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3206,13 +3117,13 @@
         <v>92</v>
       </c>
       <c r="B96" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="C96" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="C96" s="13" t="s">
+      <c r="E96" s="11" t="s">
         <v>195</v>
-      </c>
-      <c r="E96" s="11" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="97" s="11" customFormat="true" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3226,24 +3137,24 @@
         <v>197</v>
       </c>
       <c r="E97" s="11" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="98" s="11" customFormat="true" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="98" s="11" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="11" t="s">
         <v>92</v>
       </c>
       <c r="B98" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="C98" s="13" t="s">
         <v>199</v>
       </c>
-      <c r="C98" s="13" t="s">
+      <c r="E98" s="11" t="s">
         <v>200</v>
       </c>
-      <c r="E98" s="11" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="99" s="11" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="99" s="11" customFormat="true" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="11" t="s">
         <v>92</v>
       </c>
@@ -3254,34 +3165,34 @@
         <v>202</v>
       </c>
       <c r="E99" s="11" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="100" s="11" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C100" s="13"/>
+    </row>
+    <row r="101" s="11" customFormat="true" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A101" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="B101" s="11" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="100" s="11" customFormat="true" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="B100" s="11" t="s">
+      <c r="C101" s="13" t="s">
         <v>204</v>
       </c>
-      <c r="C100" s="13" t="s">
-        <v>205</v>
-      </c>
-      <c r="E100" s="11" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="101" s="11" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C101" s="13"/>
-    </row>
-    <row r="102" s="11" customFormat="true" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="102" s="11" customFormat="true" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="11" t="s">
         <v>92</v>
       </c>
       <c r="B102" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="C102" s="13" t="s">
         <v>206</v>
       </c>
-      <c r="C102" s="13" t="s">
+      <c r="E102" s="11" t="s">
         <v>207</v>
       </c>
     </row>
@@ -3296,7 +3207,7 @@
         <v>209</v>
       </c>
       <c r="E103" s="11" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="104" s="11" customFormat="true" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3304,13 +3215,13 @@
         <v>92</v>
       </c>
       <c r="B104" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="C104" s="13" t="s">
         <v>211</v>
       </c>
-      <c r="C104" s="13" t="s">
+      <c r="E104" s="11" t="s">
         <v>212</v>
-      </c>
-      <c r="E104" s="11" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="105" s="11" customFormat="true" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3324,7 +3235,7 @@
         <v>214</v>
       </c>
       <c r="E105" s="11" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="106" s="11" customFormat="true" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3332,13 +3243,13 @@
         <v>92</v>
       </c>
       <c r="B106" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="C106" s="13" t="s">
         <v>216</v>
       </c>
-      <c r="C106" s="13" t="s">
+      <c r="E106" s="11" t="s">
         <v>217</v>
-      </c>
-      <c r="E106" s="11" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="107" s="11" customFormat="true" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3352,7 +3263,7 @@
         <v>219</v>
       </c>
       <c r="E107" s="11" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="108" s="11" customFormat="true" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3360,13 +3271,13 @@
         <v>92</v>
       </c>
       <c r="B108" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="C108" s="13" t="s">
         <v>221</v>
       </c>
-      <c r="C108" s="13" t="s">
+      <c r="E108" s="11" t="s">
         <v>222</v>
-      </c>
-      <c r="E108" s="11" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="109" s="11" customFormat="true" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3380,7 +3291,7 @@
         <v>224</v>
       </c>
       <c r="E109" s="11" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="110" s="11" customFormat="true" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3388,13 +3299,13 @@
         <v>92</v>
       </c>
       <c r="B110" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="C110" s="13" t="s">
         <v>226</v>
       </c>
-      <c r="C110" s="13" t="s">
+      <c r="E110" s="11" t="s">
         <v>227</v>
-      </c>
-      <c r="E110" s="11" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="111" s="11" customFormat="true" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3408,7 +3319,7 @@
         <v>229</v>
       </c>
       <c r="E111" s="11" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="112" s="11" customFormat="true" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3416,13 +3327,13 @@
         <v>92</v>
       </c>
       <c r="B112" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="C112" s="13" t="s">
         <v>231</v>
       </c>
-      <c r="C112" s="13" t="s">
+      <c r="E112" s="11" t="s">
         <v>232</v>
-      </c>
-      <c r="E112" s="11" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="113" s="11" customFormat="true" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3436,28 +3347,15 @@
         <v>234</v>
       </c>
       <c r="E113" s="11" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="114" s="11" customFormat="true" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="B114" s="11" t="s">
-        <v>236</v>
-      </c>
-      <c r="C114" s="13" t="s">
-        <v>237</v>
-      </c>
-      <c r="E114" s="11" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="1" t="s">
         <v>30</v>
       </c>
     </row>
+    <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -3474,46 +3372,46 @@
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <dataValidations count="9">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="A2 A6:A7 A10 A13 A25:A26" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="A2 A6:A7 A10 A13 A25:A26" type="list">
       <formula1>"note,select_one,select_multiple,date,time,calculate,integer,text,decimal,acknowledge,dateTime,image,range,begin group,end group,hidden,db:person,db:clinic,db:health_center,db:district_hospital,string"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="A3" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="A3" type="list">
       <formula1>"note,select_one,select_multiple,date,time,calculate,integer,text,decimal,acknowledge,dateTime,image,range,begin group,end group,hidden,db:person,db:clinic,db:health_center,db:district_hospital,string"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="A4" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="A4" type="list">
       <formula1>"note,select_one,select_multiple,date,time,calculate,integer,text,decimal,acknowledge,dateTime,image,range,begin group,end group,hidden,db:person,db:clinic,db:health_center,db:district_hospital,string"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="A5" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="A5" type="list">
       <formula1>"note,select_one,select_multiple,date,time,calculate,integer,text,decimal,acknowledge,dateTime,image,range,begin group,end group,hidden,db:person,db:clinic,db:health_center,db:district_hospital,string"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="A9 A11:A12 A14:A24" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="A9 A11:A12 A14:A24" type="list">
       <formula1>"note,select_one,select_multiple,date,time,calculate,integer,text,decimal,acknowledge,dateTime,image,range,begin group,end group,hidden,db:person,db:clinic,db:health_center,db:district_hospital,string"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="A27" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="A27" type="list">
       <formula1>"note,select_one,select_multiple,date,time,calculate,integer,text,decimal,acknowledge,dateTime,image,range,begin group,end group,hidden,db:person,db:clinic,db:health_center,db:district_hospital,string"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="D2:D7 D10 D13 D25:D26" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="D2:D7 D10 D13 D25:D26" type="list">
       <formula1>"yes,no"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="D9 D11:D12 D14:D24" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="D9 D11:D12 D14:D24" type="list">
       <formula1>"yes,no"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="D27" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="D27" type="list">
       <formula1>"yes,no"</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -3522,7 +3420,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -3537,40 +3435,40 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="13.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="17.32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="16.67"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="4" style="1" width="11.59"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="4" style="1" width="11.58"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="18" t="s">
-        <v>238</v>
-      </c>
-      <c r="B1" s="18" t="s">
+      <c r="A1" s="17" t="s">
+        <v>235</v>
+      </c>
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="17" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>98</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>239</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3578,10 +3476,10 @@
         <v>118</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3589,10 +3487,10 @@
         <v>126</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3600,10 +3498,10 @@
         <v>126</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3611,10 +3509,10 @@
         <v>126</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3622,10 +3520,10 @@
         <v>126</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3633,10 +3531,10 @@
         <v>126</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3644,10 +3542,10 @@
         <v>126</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3655,10 +3553,10 @@
         <v>126</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3666,43 +3564,43 @@
         <v>126</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>258</v>
+      </c>
+      <c r="C16" s="18" t="s">
         <v>259</v>
       </c>
-      <c r="C15" s="1" t="s">
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="B17" s="18" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="19" t="s">
+      <c r="C17" s="18" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="B16" s="19" t="s">
-        <v>261</v>
-      </c>
-      <c r="C16" s="19" t="s">
+      <c r="B18" s="18" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="B17" s="19" t="s">
+      <c r="C18" s="18" t="s">
         <v>263</v>
-      </c>
-      <c r="C17" s="19" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="B18" s="19" t="s">
-        <v>265</v>
-      </c>
-      <c r="C18" s="19" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3710,10 +3608,10 @@
         <v>126</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3721,296 +3619,296 @@
         <v>126</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4018,10 +3916,10 @@
         <v>64</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4029,38 +3927,38 @@
         <v>64</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B58" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="B58" s="1" t="s">
-        <v>282</v>
-      </c>
       <c r="C58" s="1" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -4069,7 +3967,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -4081,49 +3979,49 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="19" width="18.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="19" width="20.25"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="20" t="s">
+        <v>281</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>282</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>283</v>
+      </c>
+      <c r="D1" s="20" t="s">
         <v>284</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="E1" s="20" t="s">
         <v>285</v>
-      </c>
-      <c r="C1" s="20" t="s">
-        <v>286</v>
-      </c>
-      <c r="D1" s="20" t="s">
-        <v>287</v>
-      </c>
-      <c r="E1" s="20" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="21" t="s">
-        <v>289</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>290</v>
+        <v>286</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>287</v>
       </c>
       <c r="C2" s="22" t="n">
         <f aca="true">NOW()</f>
-        <v>45303.7122819193</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>291</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>292</v>
+        <v>45425.5837396989</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>288</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>289</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/Guild Digital/Example CHT application/forms/app/stock_count.xlsx
+++ b/Guild Digital/Example CHT application/forms/app/stock_count.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="312">
   <si>
     <t xml:space="preserve">type</t>
   </si>
@@ -535,15 +535,6 @@
   </si>
   <si>
     <t xml:space="preserve">end_group</t>
-  </si>
-  <si>
-    <t xml:space="preserve">summary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;h3 style="text-align:center; color:black; background-color:yellow;"&gt;Summary&lt;/h3&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">field-list summary</t>
   </si>
   <si>
     <r>
@@ -570,31 +561,43 @@
     <t xml:space="preserve">&lt;h4 style="text-align:center;"&gt;Be sure you Submit to complete this action.&lt;/h4&gt;</t>
   </si>
   <si>
+    <t xml:space="preserve">field-list summary</t>
+  </si>
+  <si>
     <t xml:space="preserve">s_material_supplies</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;h4 style="text-align:center;background-color:#add8e6;"&gt;**Materials and Supplies **&lt;/h4&gt;</t>
+    <t xml:space="preserve">Materials and Supplies&lt;i class="fa fa-clipboard"&gt;&lt;/i&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">int(${gloves_remaining}) &gt; 0 or int(${masks_remaining}) &gt; 0 or int(${sanitizer_remaining}) &gt; 0 or int(${mrdts_remaining}) &gt; 0 or  int(${condoms_remaining}) &gt; 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">h1 blue</t>
   </si>
   <si>
     <t xml:space="preserve">r_gloves</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;h5 style="text-align:center;"&gt; **Gloves** &lt;/h5&gt;</t>
+    <t xml:space="preserve">Gloves</t>
   </si>
   <si>
     <t xml:space="preserve">int(${gloves_remaining}) &gt; 0</t>
   </si>
   <si>
+    <t xml:space="preserve">li</t>
+  </si>
+  <si>
     <t xml:space="preserve">r_gloves_quantity</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;h5 style="text-align:center;"&gt; Quantity remaining: ${gloves_remaining} &lt;/h5&gt;</t>
+    <t xml:space="preserve">&lt;h4 style="text-align:center;"&gt; Quantity remaining: ${gloves_remaining} &lt;/h4&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">r_masks</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;h5 style="text-align:center;"&gt; **Masks** &lt;/h5&gt;</t>
+    <t xml:space="preserve">Masks</t>
   </si>
   <si>
     <t xml:space="preserve">int(${masks_remaining}) &gt; 0</t>
@@ -603,13 +606,13 @@
     <t xml:space="preserve">r_masks_quantity</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;h5 style="text-align:center;"&gt; Quantity remaining: ${masks_remaining} &lt;/h5&gt;</t>
+    <t xml:space="preserve">&lt;h4 style="text-align:center;"&gt; Quantity remaining: ${masks_remaining} &lt;/h4&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">r_sanitizer</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;h5 style="text-align:center;"&gt; **Sanitizer** &lt;/h5&gt;</t>
+    <t xml:space="preserve">Sanitizer</t>
   </si>
   <si>
     <t xml:space="preserve">int(${sanitizer_remaining}) &gt; 0</t>
@@ -618,13 +621,13 @@
     <t xml:space="preserve">r_sanitizer_quantity</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;h5 style="text-align:center;"&gt; Quantity remaining: ${sanitizer_remaining} &lt;/h5&gt;</t>
+    <t xml:space="preserve">&lt;h4 style="text-align:center;"&gt; Quantity remaining: ${sanitizer_remaining} &lt;/h4&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">r_mrdts</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;h5 style="text-align:center;"&gt; **Malaria RDTs** &lt;/h5&gt;</t>
+    <t xml:space="preserve">Malaria RDTs</t>
   </si>
   <si>
     <t xml:space="preserve">int(${mrdts_remaining}) &gt; 0</t>
@@ -633,13 +636,13 @@
     <t xml:space="preserve">r_mrdts_quantity</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;h5 style="text-align:center;"&gt; Quantity remaining: ${mrdts_remaining} &lt;/h5&gt;</t>
+    <t xml:space="preserve">&lt;h4 style="text-align:center;"&gt; Quantity remaining: ${mrdts_remaining} &lt;/h4&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">r_condoms</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;h5 style="text-align:center;"&gt; **Condoms** &lt;/h5&gt;</t>
+    <t xml:space="preserve">Condoms</t>
   </si>
   <si>
     <t xml:space="preserve">int(${condoms_remaining}) &gt; 0</t>
@@ -648,10 +651,160 @@
     <t xml:space="preserve">r_condoms_quantity</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;h5 style="text-align:center;"&gt; Quantity remaining: ${condoms_remaining} &lt;/h5&gt;</t>
+    <t xml:space="preserve">&lt;h4 style="text-align:center;"&gt; Quantity remaining: ${condoms_remaining} &lt;/h4&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">s_drugs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Drugs&lt;i class="fa fa-medkit"&gt;&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">int(${paracetamol_remaining}) &gt; 0 or int(${zinc_ors_remaining}) &gt; 0 or int(${amoxicilline_remaining}) &gt; 0 or int(${coartem6_remaining}) &gt; 0 or  int(${coartem12_remaining}) &gt; 0 or int(${act_remaining}) &gt; 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">h1 yellow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r_paracetamol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paracetamol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">int(${paracetamol_remaining}) &gt; 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r_paracetamol_quantity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;h4 style="text-align:center;"&gt; Quantity remaining: ${paracetamol_remaining} &lt;/h4&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r_zinc_ors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zinc-ORS Co-pack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">int(${zinc_ors_remaining}) &gt; 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r_zinc_ors_quantity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;h4 style="text-align:center;"&gt; Quantity remaining: ${zinc_ors_remaining} &lt;/h4&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r_amoxicilline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amoxicillin Dispersible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">int(${amoxicilline_remaining}) &gt; 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r_amoxicilline_quantity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;h4 style="text-align:center;"&gt; Quantity remaining: ${amoxicilline_remaining} &lt;/h4&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r_coartem6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coartem – 6pack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">int(${coartem6_remaining}) &gt; 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r_coartem6_quantity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;h4 style="text-align:center;"&gt; Quantity remaining: ${coartem6_remaining} &lt;/h4&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r_coartem12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coartem – 12pack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">int(${coartem12_remaining}) &gt; 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r_coartem12_quantity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;h4 style="text-align:center;"&gt; Quantity remaining: ${coartem12_remaining} &lt;/h4&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r_act</t>
+  </si>
+  <si>
+    <t xml:space="preserve">First Line Anti-Malarial (ACT/Coartem)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">int(${act_remaining}) &gt; 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r_act_quantity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;h4 style="text-align:center;"&gt; Quantity remaining: ${act_remaining} &lt;/h4&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s_stock_out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stock Out&lt;i class="fa fa-times-circle"&gt;&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">h1 green</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s_paracetamol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">selected(${report_stockout_supplies_drugs}, ‘paracetamol’)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s_zinc_ors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">selected(${report_stockout_supplies_drugs}, ‘zinc_ors’)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s_amoxicilline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">selected(${report_stockout_supplies_drugs}, ‘amoxicilline’)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s_coartem6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">selected(${report_stockout_supplies_drugs}, ‘coartem6’)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s_coartem12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">selected(${report_stockout_supplies_drugs}, ‘coartem12’)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s_act</t>
+  </si>
+  <si>
+    <t xml:space="preserve">selected(${report_stockout_supplies_drugs} , ‘act’)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s_condoms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">selected(${report_stockout_supplies_drugs} , ‘condoms’)</t>
   </si>
   <si>
     <r>
@@ -662,18 +815,25 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">&lt;h4 style="text-align:center;background-color:</t>
+      <t xml:space="preserve">s_</t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF000000"/>
+        <color rgb="FF111111"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">#FFA500;</t>
+      <t xml:space="preserve">sanitizer</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Hand Sanitizer bottles </t>
+  </si>
+  <si>
+    <t xml:space="preserve">selected(${report_stockout_supplies_drugs} , ‘sanitizer’)</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -682,98 +842,77 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">"&gt;**Drugs **&lt;/h4&gt;</t>
+      <t xml:space="preserve">s_</t>
     </r>
-  </si>
-  <si>
-    <t xml:space="preserve">r_paracetamol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;h5 style="text-align:center;"&gt; **Paracetamol** &lt;/h5&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">int(${paracetamol_remaining}) &gt; 0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">r_paracetamol_quantity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;h5 style="text-align:center;"&gt; Quantity remaining: ${paracetamol_remaining} &lt;/h5&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">r_zinc_ors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;h5 style="text-align:center;"&gt; **Zinc-ORS Co-pack** &lt;/h5&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">int(${zinc_ors_remaining}) &gt; 0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">r_zinc_ors_quantity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;h5 style="text-align:center;"&gt; Quantity remaining: ${zinc_ors_remaining} &lt;/h5&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">r_amoxicilline</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;h5 style="text-align:center;"&gt; **Amoxicillin Dispersible** &lt;/h5&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">int(${amoxicilline_remaining}) &gt; 0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">r_amoxicilline_quantity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;h5 style="text-align:center;"&gt; Quantity remaining: ${amoxicilline_remaining} &lt;/h5&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">r_coartem6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;h5 style="text-align:center;"&gt; **Coartem – 6pack** &lt;/h5&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">int(${coartem6_remaining}) &gt; 0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">r_coartem6_quantity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;h5 style="text-align:center;"&gt; Quantity remaining: ${coartem6_remaining} &lt;/h5&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">r_coartem12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;h5 style="text-align:center;"&gt; **Coartem – 12pack** &lt;/h5&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">int(${coartem12_remaining}) &gt; 0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">r_coartem12_quantity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;h5 style="text-align:center;"&gt; Quantity remaining: ${coartem12_remaining} &lt;/h5&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">r_act</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;h5 style="text-align:center;"&gt; **First Line Anti-Malarial (ACT/Coartem)** &lt;/h5&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">int(${act_remaining}) &gt; 0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">r_act_quantity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;h5 style="text-align:center;"&gt; Quantity remaining: ${act_remaining} &lt;/h5&gt;</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF111111"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">mask</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Masks_ Surgical/Cloths</t>
+  </si>
+  <si>
+    <t xml:space="preserve">selected(${report_stockout_supplies_drugs} , ‘mask’)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF111111"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">s_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">gloves</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Pairs of Gloves</t>
+  </si>
+  <si>
+    <t xml:space="preserve">selected(${report_stockout_supplies_drugs} , ‘gloves’)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF111111"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">s_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">mrdt</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">MRDT kits </t>
+  </si>
+  <si>
+    <t xml:space="preserve">selected(${report_stockout_supplies_drugs} , ‘mrdt’)</t>
   </si>
   <si>
     <t xml:space="preserve">list_name</t>
@@ -800,51 +939,27 @@
     <t xml:space="preserve">mrdts</t>
   </si>
   <si>
-    <t xml:space="preserve">MRDT kits </t>
-  </si>
-  <si>
     <t xml:space="preserve">gloves</t>
   </si>
   <si>
-    <t xml:space="preserve">Pairs of Gloves</t>
-  </si>
-  <si>
     <t xml:space="preserve">masks</t>
   </si>
   <si>
-    <t xml:space="preserve">Masks_ Surgical/Cloths</t>
-  </si>
-  <si>
     <t xml:space="preserve">sanitizer</t>
   </si>
   <si>
-    <t xml:space="preserve">Hand Sanitizer bottles </t>
-  </si>
-  <si>
     <t xml:space="preserve">condoms</t>
   </si>
   <si>
-    <t xml:space="preserve">Condoms</t>
-  </si>
-  <si>
     <t xml:space="preserve">zinc_ors</t>
   </si>
   <si>
-    <t xml:space="preserve">Zinc-ORS Co-pack</t>
-  </si>
-  <si>
     <t xml:space="preserve">act</t>
   </si>
   <si>
-    <t xml:space="preserve">First Line Anti-Malarial (ACT/Coartem)</t>
-  </si>
-  <si>
     <t xml:space="preserve">amoxicilline</t>
   </si>
   <si>
-    <t xml:space="preserve">Amoxicillin Dispersible</t>
-  </si>
-  <si>
     <t xml:space="preserve">ORS</t>
   </si>
   <si>
@@ -860,9 +975,6 @@
     <t xml:space="preserve">coartem6</t>
   </si>
   <si>
-    <t xml:space="preserve">Coartem – 6pack</t>
-  </si>
-  <si>
     <t xml:space="preserve">coartem12</t>
   </si>
   <si>
@@ -870,9 +982,6 @@
   </si>
   <si>
     <t xml:space="preserve">paracetamol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paracetamol</t>
   </si>
   <si>
     <t xml:space="preserve">select_stockout</t>
@@ -949,7 +1058,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yy"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="16">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1012,7 +1121,14 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color rgb="FF111111"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -1020,9 +1136,8 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b val="true"/>
@@ -1095,7 +1210,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1156,15 +1271,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1176,11 +1299,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1371,21 +1494,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMI1048576"/>
+  <dimension ref="A1:AMJ1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="C93" activeCellId="0" sqref="C93"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="E127" activeCellId="0" sqref="E127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="19.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="38.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="34.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="55.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="65.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="24.2"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="5" style="1" width="11.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="55.91"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="6" style="1" width="11.58"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2970,132 +3094,149 @@
         <v>170</v>
       </c>
     </row>
-    <row r="87" s="11" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" s="11" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B87" s="11" t="s">
+      <c r="B87" s="15" t="s">
         <v>171</v>
       </c>
-      <c r="C87" s="15" t="s">
+      <c r="C87" s="11" t="s">
         <v>172</v>
       </c>
+      <c r="E87" s="15"/>
       <c r="F87" s="11" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="88" s="11" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="G87" s="15"/>
+      <c r="H87" s="15"/>
+      <c r="I87" s="15"/>
+      <c r="J87" s="15"/>
+      <c r="K87" s="15"/>
+      <c r="M87" s="15"/>
+      <c r="N87" s="15"/>
+      <c r="O87" s="15"/>
+      <c r="P87" s="15"/>
+      <c r="Q87" s="15"/>
+      <c r="R87" s="15"/>
+      <c r="S87" s="15"/>
+      <c r="T87" s="15"/>
+      <c r="U87" s="15"/>
+      <c r="AMD87" s="15"/>
+      <c r="AME87" s="15"/>
+      <c r="AMF87" s="15"/>
+      <c r="AMG87" s="15"/>
+      <c r="AMH87" s="15"/>
+      <c r="AMI87" s="15"/>
+    </row>
+    <row r="88" s="11" customFormat="true" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="B88" s="16" t="s">
+      <c r="B88" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="C88" s="11" t="s">
+      <c r="C88" s="13" t="s">
         <v>175</v>
       </c>
-      <c r="E88" s="16"/>
-      <c r="F88" s="16"/>
-      <c r="G88" s="16"/>
-      <c r="H88" s="16"/>
-      <c r="I88" s="16"/>
-      <c r="J88" s="16"/>
-      <c r="K88" s="16"/>
-      <c r="M88" s="16"/>
-      <c r="N88" s="16"/>
-      <c r="O88" s="16"/>
-      <c r="P88" s="16"/>
-      <c r="Q88" s="16"/>
-      <c r="R88" s="16"/>
-      <c r="S88" s="16"/>
-      <c r="T88" s="16"/>
-      <c r="U88" s="16"/>
-      <c r="AMD88" s="16"/>
-      <c r="AME88" s="16"/>
-      <c r="AMF88" s="16"/>
-      <c r="AMG88" s="16"/>
-      <c r="AMH88" s="16"/>
-      <c r="AMI88" s="16"/>
-    </row>
-    <row r="89" s="11" customFormat="true" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E88" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="F88" s="7" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="89" s="11" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="11" t="s">
         <v>92</v>
       </c>
       <c r="B89" s="11" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C89" s="13" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="90" s="11" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>179</v>
+      </c>
+      <c r="E89" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="F89" s="11" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="90" s="11" customFormat="true" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="11" t="s">
         <v>92</v>
       </c>
       <c r="B90" s="11" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="C90" s="13" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="E90" s="11" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="91" s="11" customFormat="true" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" s="11" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="11" t="s">
         <v>92</v>
       </c>
       <c r="B91" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="C91" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="E91" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="F91" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="C91" s="13" t="s">
-        <v>182</v>
-      </c>
-      <c r="E91" s="11" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="92" s="11" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="92" s="11" customFormat="true" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="11" t="s">
         <v>92</v>
       </c>
       <c r="B92" s="11" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="C92" s="13" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="E92" s="11" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="93" s="11" customFormat="true" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="93" s="11" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="11" t="s">
         <v>92</v>
       </c>
       <c r="B93" s="11" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="C93" s="13" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="E93" s="11" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="94" s="11" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>191</v>
+      </c>
+      <c r="F93" s="11" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="94" s="11" customFormat="true" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="11" t="s">
         <v>92</v>
       </c>
       <c r="B94" s="11" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="C94" s="13" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="E94" s="11" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="95" s="11" customFormat="true" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3103,13 +3244,16 @@
         <v>92</v>
       </c>
       <c r="B95" s="11" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="C95" s="13" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="E95" s="11" t="s">
-        <v>190</v>
+        <v>196</v>
+      </c>
+      <c r="F95" s="11" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="96" s="11" customFormat="true" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3117,69 +3261,81 @@
         <v>92</v>
       </c>
       <c r="B96" s="11" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="C96" s="13" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="E96" s="11" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="97" s="11" customFormat="true" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="97" s="11" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="11" t="s">
         <v>92</v>
       </c>
       <c r="B97" s="11" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="C97" s="13" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="E97" s="11" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="98" s="11" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>201</v>
+      </c>
+      <c r="F97" s="11" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="98" s="11" customFormat="true" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="11" t="s">
         <v>92</v>
       </c>
       <c r="B98" s="11" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="C98" s="13" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="E98" s="11" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="99" s="11" customFormat="true" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="11" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="99" s="11" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C99" s="13"/>
+    </row>
+    <row r="100" s="11" customFormat="true" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A100" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="B99" s="11" t="s">
-        <v>201</v>
-      </c>
-      <c r="C99" s="13" t="s">
-        <v>202</v>
-      </c>
-      <c r="E99" s="11" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="100" s="11" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C100" s="13"/>
-    </row>
-    <row r="101" s="11" customFormat="true" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B100" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="C100" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="E100" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="F100" s="7" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="101" s="11" customFormat="true" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="11" t="s">
         <v>92</v>
       </c>
       <c r="B101" s="11" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="C101" s="13" t="s">
-        <v>204</v>
+        <v>209</v>
+      </c>
+      <c r="E101" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="F101" s="11" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="102" s="11" customFormat="true" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3187,13 +3343,13 @@
         <v>92</v>
       </c>
       <c r="B102" s="11" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="C102" s="13" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="E102" s="11" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
     </row>
     <row r="103" s="11" customFormat="true" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3201,13 +3357,16 @@
         <v>92</v>
       </c>
       <c r="B103" s="11" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="C103" s="13" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="E103" s="11" t="s">
-        <v>207</v>
+        <v>215</v>
+      </c>
+      <c r="F103" s="11" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="104" s="11" customFormat="true" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3215,13 +3374,13 @@
         <v>92</v>
       </c>
       <c r="B104" s="11" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="C104" s="13" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="E104" s="11" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
     </row>
     <row r="105" s="11" customFormat="true" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3229,13 +3388,16 @@
         <v>92</v>
       </c>
       <c r="B105" s="11" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="C105" s="13" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="E105" s="11" t="s">
-        <v>212</v>
+        <v>220</v>
+      </c>
+      <c r="F105" s="11" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="106" s="11" customFormat="true" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3243,13 +3405,13 @@
         <v>92</v>
       </c>
       <c r="B106" s="11" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="C106" s="13" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="E106" s="11" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
     </row>
     <row r="107" s="11" customFormat="true" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3257,13 +3419,16 @@
         <v>92</v>
       </c>
       <c r="B107" s="11" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="C107" s="13" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="E107" s="11" t="s">
-        <v>217</v>
+        <v>225</v>
+      </c>
+      <c r="F107" s="11" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="108" s="11" customFormat="true" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3271,13 +3436,13 @@
         <v>92</v>
       </c>
       <c r="B108" s="11" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="C108" s="13" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="E108" s="11" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
     </row>
     <row r="109" s="11" customFormat="true" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3285,13 +3450,16 @@
         <v>92</v>
       </c>
       <c r="B109" s="11" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="C109" s="13" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="E109" s="11" t="s">
-        <v>222</v>
+        <v>230</v>
+      </c>
+      <c r="F109" s="11" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="110" s="11" customFormat="true" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3299,13 +3467,13 @@
         <v>92</v>
       </c>
       <c r="B110" s="11" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="C110" s="13" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="E110" s="11" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
     </row>
     <row r="111" s="11" customFormat="true" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3313,13 +3481,16 @@
         <v>92</v>
       </c>
       <c r="B111" s="11" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="C111" s="13" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="E111" s="11" t="s">
-        <v>227</v>
+        <v>235</v>
+      </c>
+      <c r="F111" s="11" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="112" s="11" customFormat="true" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3327,45 +3498,1247 @@
         <v>92</v>
       </c>
       <c r="B112" s="11" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="C112" s="13" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="E112" s="11" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="113" s="11" customFormat="true" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A113" s="11" t="s">
         <v>92</v>
       </c>
       <c r="B113" s="11" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="C113" s="13" t="s">
+        <v>239</v>
+      </c>
+      <c r="D113" s="11"/>
+      <c r="E113" s="11"/>
+      <c r="F113" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="G113" s="11"/>
+      <c r="H113" s="11"/>
+      <c r="I113" s="11"/>
+      <c r="J113" s="11"/>
+      <c r="K113" s="11"/>
+      <c r="L113" s="11"/>
+      <c r="M113" s="11"/>
+      <c r="N113" s="11"/>
+      <c r="O113" s="11"/>
+      <c r="P113" s="11"/>
+      <c r="Q113" s="11"/>
+      <c r="R113" s="11"/>
+      <c r="S113" s="11"/>
+      <c r="T113" s="11"/>
+      <c r="U113" s="11"/>
+      <c r="V113" s="11"/>
+      <c r="W113" s="11"/>
+      <c r="X113" s="11"/>
+      <c r="Y113" s="11"/>
+      <c r="Z113" s="11"/>
+      <c r="AA113" s="11"/>
+      <c r="AB113" s="11"/>
+      <c r="AC113" s="11"/>
+      <c r="AD113" s="11"/>
+      <c r="AE113" s="11"/>
+      <c r="AF113" s="11"/>
+      <c r="AG113" s="11"/>
+      <c r="AH113" s="11"/>
+      <c r="AI113" s="11"/>
+      <c r="AJ113" s="11"/>
+      <c r="AK113" s="11"/>
+      <c r="AL113" s="11"/>
+      <c r="AM113" s="11"/>
+      <c r="AN113" s="11"/>
+      <c r="AO113" s="11"/>
+      <c r="AP113" s="11"/>
+      <c r="AQ113" s="11"/>
+      <c r="AR113" s="11"/>
+      <c r="AS113" s="11"/>
+      <c r="AT113" s="11"/>
+      <c r="AU113" s="11"/>
+      <c r="AV113" s="11"/>
+      <c r="AW113" s="11"/>
+      <c r="AX113" s="11"/>
+      <c r="AY113" s="11"/>
+      <c r="AZ113" s="11"/>
+      <c r="BA113" s="11"/>
+      <c r="BB113" s="11"/>
+      <c r="BC113" s="11"/>
+      <c r="BD113" s="11"/>
+      <c r="BE113" s="11"/>
+      <c r="BF113" s="11"/>
+      <c r="BG113" s="11"/>
+      <c r="BH113" s="11"/>
+      <c r="BI113" s="11"/>
+      <c r="BJ113" s="11"/>
+      <c r="BK113" s="11"/>
+      <c r="BL113" s="11"/>
+      <c r="BM113" s="11"/>
+      <c r="BN113" s="11"/>
+      <c r="BO113" s="11"/>
+      <c r="BP113" s="11"/>
+      <c r="BQ113" s="11"/>
+      <c r="BR113" s="11"/>
+      <c r="BS113" s="11"/>
+      <c r="BT113" s="11"/>
+      <c r="BU113" s="11"/>
+      <c r="BV113" s="11"/>
+      <c r="BW113" s="11"/>
+      <c r="BX113" s="11"/>
+      <c r="BY113" s="11"/>
+      <c r="BZ113" s="11"/>
+      <c r="CA113" s="11"/>
+      <c r="CB113" s="11"/>
+      <c r="CC113" s="11"/>
+      <c r="CD113" s="11"/>
+      <c r="CE113" s="11"/>
+      <c r="CF113" s="11"/>
+      <c r="CG113" s="11"/>
+      <c r="CH113" s="11"/>
+      <c r="CI113" s="11"/>
+      <c r="CJ113" s="11"/>
+      <c r="CK113" s="11"/>
+      <c r="CL113" s="11"/>
+      <c r="CM113" s="11"/>
+      <c r="CN113" s="11"/>
+      <c r="CO113" s="11"/>
+      <c r="CP113" s="11"/>
+      <c r="CQ113" s="11"/>
+      <c r="CR113" s="11"/>
+      <c r="CS113" s="11"/>
+      <c r="CT113" s="11"/>
+      <c r="CU113" s="11"/>
+      <c r="CV113" s="11"/>
+      <c r="CW113" s="11"/>
+      <c r="CX113" s="11"/>
+      <c r="CY113" s="11"/>
+      <c r="CZ113" s="11"/>
+      <c r="DA113" s="11"/>
+      <c r="DB113" s="11"/>
+      <c r="DC113" s="11"/>
+      <c r="DD113" s="11"/>
+      <c r="DE113" s="11"/>
+      <c r="DF113" s="11"/>
+      <c r="DG113" s="11"/>
+      <c r="DH113" s="11"/>
+      <c r="DI113" s="11"/>
+      <c r="DJ113" s="11"/>
+      <c r="DK113" s="11"/>
+      <c r="DL113" s="11"/>
+      <c r="DM113" s="11"/>
+      <c r="DN113" s="11"/>
+      <c r="DO113" s="11"/>
+      <c r="DP113" s="11"/>
+      <c r="DQ113" s="11"/>
+      <c r="DR113" s="11"/>
+      <c r="DS113" s="11"/>
+      <c r="DT113" s="11"/>
+      <c r="DU113" s="11"/>
+      <c r="DV113" s="11"/>
+      <c r="DW113" s="11"/>
+      <c r="DX113" s="11"/>
+      <c r="DY113" s="11"/>
+      <c r="DZ113" s="11"/>
+      <c r="EA113" s="11"/>
+      <c r="EB113" s="11"/>
+      <c r="EC113" s="11"/>
+      <c r="ED113" s="11"/>
+      <c r="EE113" s="11"/>
+      <c r="EF113" s="11"/>
+      <c r="EG113" s="11"/>
+      <c r="EH113" s="11"/>
+      <c r="EI113" s="11"/>
+      <c r="EJ113" s="11"/>
+      <c r="EK113" s="11"/>
+      <c r="EL113" s="11"/>
+      <c r="EM113" s="11"/>
+      <c r="EN113" s="11"/>
+      <c r="EO113" s="11"/>
+      <c r="EP113" s="11"/>
+      <c r="EQ113" s="11"/>
+      <c r="ER113" s="11"/>
+      <c r="ES113" s="11"/>
+      <c r="ET113" s="11"/>
+      <c r="EU113" s="11"/>
+      <c r="EV113" s="11"/>
+      <c r="EW113" s="11"/>
+      <c r="EX113" s="11"/>
+      <c r="EY113" s="11"/>
+      <c r="EZ113" s="11"/>
+      <c r="FA113" s="11"/>
+      <c r="FB113" s="11"/>
+      <c r="FC113" s="11"/>
+      <c r="FD113" s="11"/>
+      <c r="FE113" s="11"/>
+      <c r="FF113" s="11"/>
+      <c r="FG113" s="11"/>
+      <c r="FH113" s="11"/>
+      <c r="FI113" s="11"/>
+      <c r="FJ113" s="11"/>
+      <c r="FK113" s="11"/>
+      <c r="FL113" s="11"/>
+      <c r="FM113" s="11"/>
+      <c r="FN113" s="11"/>
+      <c r="FO113" s="11"/>
+      <c r="FP113" s="11"/>
+      <c r="FQ113" s="11"/>
+      <c r="FR113" s="11"/>
+      <c r="FS113" s="11"/>
+      <c r="FT113" s="11"/>
+      <c r="FU113" s="11"/>
+      <c r="FV113" s="11"/>
+      <c r="FW113" s="11"/>
+      <c r="FX113" s="11"/>
+      <c r="FY113" s="11"/>
+      <c r="FZ113" s="11"/>
+      <c r="GA113" s="11"/>
+      <c r="GB113" s="11"/>
+      <c r="GC113" s="11"/>
+      <c r="GD113" s="11"/>
+      <c r="GE113" s="11"/>
+      <c r="GF113" s="11"/>
+      <c r="GG113" s="11"/>
+      <c r="GH113" s="11"/>
+      <c r="GI113" s="11"/>
+      <c r="GJ113" s="11"/>
+      <c r="GK113" s="11"/>
+      <c r="GL113" s="11"/>
+      <c r="GM113" s="11"/>
+      <c r="GN113" s="11"/>
+      <c r="GO113" s="11"/>
+      <c r="GP113" s="11"/>
+      <c r="GQ113" s="11"/>
+      <c r="GR113" s="11"/>
+      <c r="GS113" s="11"/>
+      <c r="GT113" s="11"/>
+      <c r="GU113" s="11"/>
+      <c r="GV113" s="11"/>
+      <c r="GW113" s="11"/>
+      <c r="GX113" s="11"/>
+      <c r="GY113" s="11"/>
+      <c r="GZ113" s="11"/>
+      <c r="HA113" s="11"/>
+      <c r="HB113" s="11"/>
+      <c r="HC113" s="11"/>
+      <c r="HD113" s="11"/>
+      <c r="HE113" s="11"/>
+      <c r="HF113" s="11"/>
+      <c r="HG113" s="11"/>
+      <c r="HH113" s="11"/>
+      <c r="HI113" s="11"/>
+      <c r="HJ113" s="11"/>
+      <c r="HK113" s="11"/>
+      <c r="HL113" s="11"/>
+      <c r="HM113" s="11"/>
+      <c r="HN113" s="11"/>
+      <c r="HO113" s="11"/>
+      <c r="HP113" s="11"/>
+      <c r="HQ113" s="11"/>
+      <c r="HR113" s="11"/>
+      <c r="HS113" s="11"/>
+      <c r="HT113" s="11"/>
+      <c r="HU113" s="11"/>
+      <c r="HV113" s="11"/>
+      <c r="HW113" s="11"/>
+      <c r="HX113" s="11"/>
+      <c r="HY113" s="11"/>
+      <c r="HZ113" s="11"/>
+      <c r="IA113" s="11"/>
+      <c r="IB113" s="11"/>
+      <c r="IC113" s="11"/>
+      <c r="ID113" s="11"/>
+      <c r="IE113" s="11"/>
+      <c r="IF113" s="11"/>
+      <c r="IG113" s="11"/>
+      <c r="IH113" s="11"/>
+      <c r="II113" s="11"/>
+      <c r="IJ113" s="11"/>
+      <c r="IK113" s="11"/>
+      <c r="IL113" s="11"/>
+      <c r="IM113" s="11"/>
+      <c r="IN113" s="11"/>
+      <c r="IO113" s="11"/>
+      <c r="IP113" s="11"/>
+      <c r="IQ113" s="11"/>
+      <c r="IR113" s="11"/>
+      <c r="IS113" s="11"/>
+      <c r="IT113" s="11"/>
+      <c r="IU113" s="11"/>
+      <c r="IV113" s="11"/>
+      <c r="IW113" s="11"/>
+      <c r="IX113" s="11"/>
+      <c r="IY113" s="11"/>
+      <c r="IZ113" s="11"/>
+      <c r="JA113" s="11"/>
+      <c r="JB113" s="11"/>
+      <c r="JC113" s="11"/>
+      <c r="JD113" s="11"/>
+      <c r="JE113" s="11"/>
+      <c r="JF113" s="11"/>
+      <c r="JG113" s="11"/>
+      <c r="JH113" s="11"/>
+      <c r="JI113" s="11"/>
+      <c r="JJ113" s="11"/>
+      <c r="JK113" s="11"/>
+      <c r="JL113" s="11"/>
+      <c r="JM113" s="11"/>
+      <c r="JN113" s="11"/>
+      <c r="JO113" s="11"/>
+      <c r="JP113" s="11"/>
+      <c r="JQ113" s="11"/>
+      <c r="JR113" s="11"/>
+      <c r="JS113" s="11"/>
+      <c r="JT113" s="11"/>
+      <c r="JU113" s="11"/>
+      <c r="JV113" s="11"/>
+      <c r="JW113" s="11"/>
+      <c r="JX113" s="11"/>
+      <c r="JY113" s="11"/>
+      <c r="JZ113" s="11"/>
+      <c r="KA113" s="11"/>
+      <c r="KB113" s="11"/>
+      <c r="KC113" s="11"/>
+      <c r="KD113" s="11"/>
+      <c r="KE113" s="11"/>
+      <c r="KF113" s="11"/>
+      <c r="KG113" s="11"/>
+      <c r="KH113" s="11"/>
+      <c r="KI113" s="11"/>
+      <c r="KJ113" s="11"/>
+      <c r="KK113" s="11"/>
+      <c r="KL113" s="11"/>
+      <c r="KM113" s="11"/>
+      <c r="KN113" s="11"/>
+      <c r="KO113" s="11"/>
+      <c r="KP113" s="11"/>
+      <c r="KQ113" s="11"/>
+      <c r="KR113" s="11"/>
+      <c r="KS113" s="11"/>
+      <c r="KT113" s="11"/>
+      <c r="KU113" s="11"/>
+      <c r="KV113" s="11"/>
+      <c r="KW113" s="11"/>
+      <c r="KX113" s="11"/>
+      <c r="KY113" s="11"/>
+      <c r="KZ113" s="11"/>
+      <c r="LA113" s="11"/>
+      <c r="LB113" s="11"/>
+      <c r="LC113" s="11"/>
+      <c r="LD113" s="11"/>
+      <c r="LE113" s="11"/>
+      <c r="LF113" s="11"/>
+      <c r="LG113" s="11"/>
+      <c r="LH113" s="11"/>
+      <c r="LI113" s="11"/>
+      <c r="LJ113" s="11"/>
+      <c r="LK113" s="11"/>
+      <c r="LL113" s="11"/>
+      <c r="LM113" s="11"/>
+      <c r="LN113" s="11"/>
+      <c r="LO113" s="11"/>
+      <c r="LP113" s="11"/>
+      <c r="LQ113" s="11"/>
+      <c r="LR113" s="11"/>
+      <c r="LS113" s="11"/>
+      <c r="LT113" s="11"/>
+      <c r="LU113" s="11"/>
+      <c r="LV113" s="11"/>
+      <c r="LW113" s="11"/>
+      <c r="LX113" s="11"/>
+      <c r="LY113" s="11"/>
+      <c r="LZ113" s="11"/>
+      <c r="MA113" s="11"/>
+      <c r="MB113" s="11"/>
+      <c r="MC113" s="11"/>
+      <c r="MD113" s="11"/>
+      <c r="ME113" s="11"/>
+      <c r="MF113" s="11"/>
+      <c r="MG113" s="11"/>
+      <c r="MH113" s="11"/>
+      <c r="MI113" s="11"/>
+      <c r="MJ113" s="11"/>
+      <c r="MK113" s="11"/>
+      <c r="ML113" s="11"/>
+      <c r="MM113" s="11"/>
+      <c r="MN113" s="11"/>
+      <c r="MO113" s="11"/>
+      <c r="MP113" s="11"/>
+      <c r="MQ113" s="11"/>
+      <c r="MR113" s="11"/>
+      <c r="MS113" s="11"/>
+      <c r="MT113" s="11"/>
+      <c r="MU113" s="11"/>
+      <c r="MV113" s="11"/>
+      <c r="MW113" s="11"/>
+      <c r="MX113" s="11"/>
+      <c r="MY113" s="11"/>
+      <c r="MZ113" s="11"/>
+      <c r="NA113" s="11"/>
+      <c r="NB113" s="11"/>
+      <c r="NC113" s="11"/>
+      <c r="ND113" s="11"/>
+      <c r="NE113" s="11"/>
+      <c r="NF113" s="11"/>
+      <c r="NG113" s="11"/>
+      <c r="NH113" s="11"/>
+      <c r="NI113" s="11"/>
+      <c r="NJ113" s="11"/>
+      <c r="NK113" s="11"/>
+      <c r="NL113" s="11"/>
+      <c r="NM113" s="11"/>
+      <c r="NN113" s="11"/>
+      <c r="NO113" s="11"/>
+      <c r="NP113" s="11"/>
+      <c r="NQ113" s="11"/>
+      <c r="NR113" s="11"/>
+      <c r="NS113" s="11"/>
+      <c r="NT113" s="11"/>
+      <c r="NU113" s="11"/>
+      <c r="NV113" s="11"/>
+      <c r="NW113" s="11"/>
+      <c r="NX113" s="11"/>
+      <c r="NY113" s="11"/>
+      <c r="NZ113" s="11"/>
+      <c r="OA113" s="11"/>
+      <c r="OB113" s="11"/>
+      <c r="OC113" s="11"/>
+      <c r="OD113" s="11"/>
+      <c r="OE113" s="11"/>
+      <c r="OF113" s="11"/>
+      <c r="OG113" s="11"/>
+      <c r="OH113" s="11"/>
+      <c r="OI113" s="11"/>
+      <c r="OJ113" s="11"/>
+      <c r="OK113" s="11"/>
+      <c r="OL113" s="11"/>
+      <c r="OM113" s="11"/>
+      <c r="ON113" s="11"/>
+      <c r="OO113" s="11"/>
+      <c r="OP113" s="11"/>
+      <c r="OQ113" s="11"/>
+      <c r="OR113" s="11"/>
+      <c r="OS113" s="11"/>
+      <c r="OT113" s="11"/>
+      <c r="OU113" s="11"/>
+      <c r="OV113" s="11"/>
+      <c r="OW113" s="11"/>
+      <c r="OX113" s="11"/>
+      <c r="OY113" s="11"/>
+      <c r="OZ113" s="11"/>
+      <c r="PA113" s="11"/>
+      <c r="PB113" s="11"/>
+      <c r="PC113" s="11"/>
+      <c r="PD113" s="11"/>
+      <c r="PE113" s="11"/>
+      <c r="PF113" s="11"/>
+      <c r="PG113" s="11"/>
+      <c r="PH113" s="11"/>
+      <c r="PI113" s="11"/>
+      <c r="PJ113" s="11"/>
+      <c r="PK113" s="11"/>
+      <c r="PL113" s="11"/>
+      <c r="PM113" s="11"/>
+      <c r="PN113" s="11"/>
+      <c r="PO113" s="11"/>
+      <c r="PP113" s="11"/>
+      <c r="PQ113" s="11"/>
+      <c r="PR113" s="11"/>
+      <c r="PS113" s="11"/>
+      <c r="PT113" s="11"/>
+      <c r="PU113" s="11"/>
+      <c r="PV113" s="11"/>
+      <c r="PW113" s="11"/>
+      <c r="PX113" s="11"/>
+      <c r="PY113" s="11"/>
+      <c r="PZ113" s="11"/>
+      <c r="QA113" s="11"/>
+      <c r="QB113" s="11"/>
+      <c r="QC113" s="11"/>
+      <c r="QD113" s="11"/>
+      <c r="QE113" s="11"/>
+      <c r="QF113" s="11"/>
+      <c r="QG113" s="11"/>
+      <c r="QH113" s="11"/>
+      <c r="QI113" s="11"/>
+      <c r="QJ113" s="11"/>
+      <c r="QK113" s="11"/>
+      <c r="QL113" s="11"/>
+      <c r="QM113" s="11"/>
+      <c r="QN113" s="11"/>
+      <c r="QO113" s="11"/>
+      <c r="QP113" s="11"/>
+      <c r="QQ113" s="11"/>
+      <c r="QR113" s="11"/>
+      <c r="QS113" s="11"/>
+      <c r="QT113" s="11"/>
+      <c r="QU113" s="11"/>
+      <c r="QV113" s="11"/>
+      <c r="QW113" s="11"/>
+      <c r="QX113" s="11"/>
+      <c r="QY113" s="11"/>
+      <c r="QZ113" s="11"/>
+      <c r="RA113" s="11"/>
+      <c r="RB113" s="11"/>
+      <c r="RC113" s="11"/>
+      <c r="RD113" s="11"/>
+      <c r="RE113" s="11"/>
+      <c r="RF113" s="11"/>
+      <c r="RG113" s="11"/>
+      <c r="RH113" s="11"/>
+      <c r="RI113" s="11"/>
+      <c r="RJ113" s="11"/>
+      <c r="RK113" s="11"/>
+      <c r="RL113" s="11"/>
+      <c r="RM113" s="11"/>
+      <c r="RN113" s="11"/>
+      <c r="RO113" s="11"/>
+      <c r="RP113" s="11"/>
+      <c r="RQ113" s="11"/>
+      <c r="RR113" s="11"/>
+      <c r="RS113" s="11"/>
+      <c r="RT113" s="11"/>
+      <c r="RU113" s="11"/>
+      <c r="RV113" s="11"/>
+      <c r="RW113" s="11"/>
+      <c r="RX113" s="11"/>
+      <c r="RY113" s="11"/>
+      <c r="RZ113" s="11"/>
+      <c r="SA113" s="11"/>
+      <c r="SB113" s="11"/>
+      <c r="SC113" s="11"/>
+      <c r="SD113" s="11"/>
+      <c r="SE113" s="11"/>
+      <c r="SF113" s="11"/>
+      <c r="SG113" s="11"/>
+      <c r="SH113" s="11"/>
+      <c r="SI113" s="11"/>
+      <c r="SJ113" s="11"/>
+      <c r="SK113" s="11"/>
+      <c r="SL113" s="11"/>
+      <c r="SM113" s="11"/>
+      <c r="SN113" s="11"/>
+      <c r="SO113" s="11"/>
+      <c r="SP113" s="11"/>
+      <c r="SQ113" s="11"/>
+      <c r="SR113" s="11"/>
+      <c r="SS113" s="11"/>
+      <c r="ST113" s="11"/>
+      <c r="SU113" s="11"/>
+      <c r="SV113" s="11"/>
+      <c r="SW113" s="11"/>
+      <c r="SX113" s="11"/>
+      <c r="SY113" s="11"/>
+      <c r="SZ113" s="11"/>
+      <c r="TA113" s="11"/>
+      <c r="TB113" s="11"/>
+      <c r="TC113" s="11"/>
+      <c r="TD113" s="11"/>
+      <c r="TE113" s="11"/>
+      <c r="TF113" s="11"/>
+      <c r="TG113" s="11"/>
+      <c r="TH113" s="11"/>
+      <c r="TI113" s="11"/>
+      <c r="TJ113" s="11"/>
+      <c r="TK113" s="11"/>
+      <c r="TL113" s="11"/>
+      <c r="TM113" s="11"/>
+      <c r="TN113" s="11"/>
+      <c r="TO113" s="11"/>
+      <c r="TP113" s="11"/>
+      <c r="TQ113" s="11"/>
+      <c r="TR113" s="11"/>
+      <c r="TS113" s="11"/>
+      <c r="TT113" s="11"/>
+      <c r="TU113" s="11"/>
+      <c r="TV113" s="11"/>
+      <c r="TW113" s="11"/>
+      <c r="TX113" s="11"/>
+      <c r="TY113" s="11"/>
+      <c r="TZ113" s="11"/>
+      <c r="UA113" s="11"/>
+      <c r="UB113" s="11"/>
+      <c r="UC113" s="11"/>
+      <c r="UD113" s="11"/>
+      <c r="UE113" s="11"/>
+      <c r="UF113" s="11"/>
+      <c r="UG113" s="11"/>
+      <c r="UH113" s="11"/>
+      <c r="UI113" s="11"/>
+      <c r="UJ113" s="11"/>
+      <c r="UK113" s="11"/>
+      <c r="UL113" s="11"/>
+      <c r="UM113" s="11"/>
+      <c r="UN113" s="11"/>
+      <c r="UO113" s="11"/>
+      <c r="UP113" s="11"/>
+      <c r="UQ113" s="11"/>
+      <c r="UR113" s="11"/>
+      <c r="US113" s="11"/>
+      <c r="UT113" s="11"/>
+      <c r="UU113" s="11"/>
+      <c r="UV113" s="11"/>
+      <c r="UW113" s="11"/>
+      <c r="UX113" s="11"/>
+      <c r="UY113" s="11"/>
+      <c r="UZ113" s="11"/>
+      <c r="VA113" s="11"/>
+      <c r="VB113" s="11"/>
+      <c r="VC113" s="11"/>
+      <c r="VD113" s="11"/>
+      <c r="VE113" s="11"/>
+      <c r="VF113" s="11"/>
+      <c r="VG113" s="11"/>
+      <c r="VH113" s="11"/>
+      <c r="VI113" s="11"/>
+      <c r="VJ113" s="11"/>
+      <c r="VK113" s="11"/>
+      <c r="VL113" s="11"/>
+      <c r="VM113" s="11"/>
+      <c r="VN113" s="11"/>
+      <c r="VO113" s="11"/>
+      <c r="VP113" s="11"/>
+      <c r="VQ113" s="11"/>
+      <c r="VR113" s="11"/>
+      <c r="VS113" s="11"/>
+      <c r="VT113" s="11"/>
+      <c r="VU113" s="11"/>
+      <c r="VV113" s="11"/>
+      <c r="VW113" s="11"/>
+      <c r="VX113" s="11"/>
+      <c r="VY113" s="11"/>
+      <c r="VZ113" s="11"/>
+      <c r="WA113" s="11"/>
+      <c r="WB113" s="11"/>
+      <c r="WC113" s="11"/>
+      <c r="WD113" s="11"/>
+      <c r="WE113" s="11"/>
+      <c r="WF113" s="11"/>
+      <c r="WG113" s="11"/>
+      <c r="WH113" s="11"/>
+      <c r="WI113" s="11"/>
+      <c r="WJ113" s="11"/>
+      <c r="WK113" s="11"/>
+      <c r="WL113" s="11"/>
+      <c r="WM113" s="11"/>
+      <c r="WN113" s="11"/>
+      <c r="WO113" s="11"/>
+      <c r="WP113" s="11"/>
+      <c r="WQ113" s="11"/>
+      <c r="WR113" s="11"/>
+      <c r="WS113" s="11"/>
+      <c r="WT113" s="11"/>
+      <c r="WU113" s="11"/>
+      <c r="WV113" s="11"/>
+      <c r="WW113" s="11"/>
+      <c r="WX113" s="11"/>
+      <c r="WY113" s="11"/>
+      <c r="WZ113" s="11"/>
+      <c r="XA113" s="11"/>
+      <c r="XB113" s="11"/>
+      <c r="XC113" s="11"/>
+      <c r="XD113" s="11"/>
+      <c r="XE113" s="11"/>
+      <c r="XF113" s="11"/>
+      <c r="XG113" s="11"/>
+      <c r="XH113" s="11"/>
+      <c r="XI113" s="11"/>
+      <c r="XJ113" s="11"/>
+      <c r="XK113" s="11"/>
+      <c r="XL113" s="11"/>
+      <c r="XM113" s="11"/>
+      <c r="XN113" s="11"/>
+      <c r="XO113" s="11"/>
+      <c r="XP113" s="11"/>
+      <c r="XQ113" s="11"/>
+      <c r="XR113" s="11"/>
+      <c r="XS113" s="11"/>
+      <c r="XT113" s="11"/>
+      <c r="XU113" s="11"/>
+      <c r="XV113" s="11"/>
+      <c r="XW113" s="11"/>
+      <c r="XX113" s="11"/>
+      <c r="XY113" s="11"/>
+      <c r="XZ113" s="11"/>
+      <c r="YA113" s="11"/>
+      <c r="YB113" s="11"/>
+      <c r="YC113" s="11"/>
+      <c r="YD113" s="11"/>
+      <c r="YE113" s="11"/>
+      <c r="YF113" s="11"/>
+      <c r="YG113" s="11"/>
+      <c r="YH113" s="11"/>
+      <c r="YI113" s="11"/>
+      <c r="YJ113" s="11"/>
+      <c r="YK113" s="11"/>
+      <c r="YL113" s="11"/>
+      <c r="YM113" s="11"/>
+      <c r="YN113" s="11"/>
+      <c r="YO113" s="11"/>
+      <c r="YP113" s="11"/>
+      <c r="YQ113" s="11"/>
+      <c r="YR113" s="11"/>
+      <c r="YS113" s="11"/>
+      <c r="YT113" s="11"/>
+      <c r="YU113" s="11"/>
+      <c r="YV113" s="11"/>
+      <c r="YW113" s="11"/>
+      <c r="YX113" s="11"/>
+      <c r="YY113" s="11"/>
+      <c r="YZ113" s="11"/>
+      <c r="ZA113" s="11"/>
+      <c r="ZB113" s="11"/>
+      <c r="ZC113" s="11"/>
+      <c r="ZD113" s="11"/>
+      <c r="ZE113" s="11"/>
+      <c r="ZF113" s="11"/>
+      <c r="ZG113" s="11"/>
+      <c r="ZH113" s="11"/>
+      <c r="ZI113" s="11"/>
+      <c r="ZJ113" s="11"/>
+      <c r="ZK113" s="11"/>
+      <c r="ZL113" s="11"/>
+      <c r="ZM113" s="11"/>
+      <c r="ZN113" s="11"/>
+      <c r="ZO113" s="11"/>
+      <c r="ZP113" s="11"/>
+      <c r="ZQ113" s="11"/>
+      <c r="ZR113" s="11"/>
+      <c r="ZS113" s="11"/>
+      <c r="ZT113" s="11"/>
+      <c r="ZU113" s="11"/>
+      <c r="ZV113" s="11"/>
+      <c r="ZW113" s="11"/>
+      <c r="ZX113" s="11"/>
+      <c r="ZY113" s="11"/>
+      <c r="ZZ113" s="11"/>
+      <c r="AAA113" s="11"/>
+      <c r="AAB113" s="11"/>
+      <c r="AAC113" s="11"/>
+      <c r="AAD113" s="11"/>
+      <c r="AAE113" s="11"/>
+      <c r="AAF113" s="11"/>
+      <c r="AAG113" s="11"/>
+      <c r="AAH113" s="11"/>
+      <c r="AAI113" s="11"/>
+      <c r="AAJ113" s="11"/>
+      <c r="AAK113" s="11"/>
+      <c r="AAL113" s="11"/>
+      <c r="AAM113" s="11"/>
+      <c r="AAN113" s="11"/>
+      <c r="AAO113" s="11"/>
+      <c r="AAP113" s="11"/>
+      <c r="AAQ113" s="11"/>
+      <c r="AAR113" s="11"/>
+      <c r="AAS113" s="11"/>
+      <c r="AAT113" s="11"/>
+      <c r="AAU113" s="11"/>
+      <c r="AAV113" s="11"/>
+      <c r="AAW113" s="11"/>
+      <c r="AAX113" s="11"/>
+      <c r="AAY113" s="11"/>
+      <c r="AAZ113" s="11"/>
+      <c r="ABA113" s="11"/>
+      <c r="ABB113" s="11"/>
+      <c r="ABC113" s="11"/>
+      <c r="ABD113" s="11"/>
+      <c r="ABE113" s="11"/>
+      <c r="ABF113" s="11"/>
+      <c r="ABG113" s="11"/>
+      <c r="ABH113" s="11"/>
+      <c r="ABI113" s="11"/>
+      <c r="ABJ113" s="11"/>
+      <c r="ABK113" s="11"/>
+      <c r="ABL113" s="11"/>
+      <c r="ABM113" s="11"/>
+      <c r="ABN113" s="11"/>
+      <c r="ABO113" s="11"/>
+      <c r="ABP113" s="11"/>
+      <c r="ABQ113" s="11"/>
+      <c r="ABR113" s="11"/>
+      <c r="ABS113" s="11"/>
+      <c r="ABT113" s="11"/>
+      <c r="ABU113" s="11"/>
+      <c r="ABV113" s="11"/>
+      <c r="ABW113" s="11"/>
+      <c r="ABX113" s="11"/>
+      <c r="ABY113" s="11"/>
+      <c r="ABZ113" s="11"/>
+      <c r="ACA113" s="11"/>
+      <c r="ACB113" s="11"/>
+      <c r="ACC113" s="11"/>
+      <c r="ACD113" s="11"/>
+      <c r="ACE113" s="11"/>
+      <c r="ACF113" s="11"/>
+      <c r="ACG113" s="11"/>
+      <c r="ACH113" s="11"/>
+      <c r="ACI113" s="11"/>
+      <c r="ACJ113" s="11"/>
+      <c r="ACK113" s="11"/>
+      <c r="ACL113" s="11"/>
+      <c r="ACM113" s="11"/>
+      <c r="ACN113" s="11"/>
+      <c r="ACO113" s="11"/>
+      <c r="ACP113" s="11"/>
+      <c r="ACQ113" s="11"/>
+      <c r="ACR113" s="11"/>
+      <c r="ACS113" s="11"/>
+      <c r="ACT113" s="11"/>
+      <c r="ACU113" s="11"/>
+      <c r="ACV113" s="11"/>
+      <c r="ACW113" s="11"/>
+      <c r="ACX113" s="11"/>
+      <c r="ACY113" s="11"/>
+      <c r="ACZ113" s="11"/>
+      <c r="ADA113" s="11"/>
+      <c r="ADB113" s="11"/>
+      <c r="ADC113" s="11"/>
+      <c r="ADD113" s="11"/>
+      <c r="ADE113" s="11"/>
+      <c r="ADF113" s="11"/>
+      <c r="ADG113" s="11"/>
+      <c r="ADH113" s="11"/>
+      <c r="ADI113" s="11"/>
+      <c r="ADJ113" s="11"/>
+      <c r="ADK113" s="11"/>
+      <c r="ADL113" s="11"/>
+      <c r="ADM113" s="11"/>
+      <c r="ADN113" s="11"/>
+      <c r="ADO113" s="11"/>
+      <c r="ADP113" s="11"/>
+      <c r="ADQ113" s="11"/>
+      <c r="ADR113" s="11"/>
+      <c r="ADS113" s="11"/>
+      <c r="ADT113" s="11"/>
+      <c r="ADU113" s="11"/>
+      <c r="ADV113" s="11"/>
+      <c r="ADW113" s="11"/>
+      <c r="ADX113" s="11"/>
+      <c r="ADY113" s="11"/>
+      <c r="ADZ113" s="11"/>
+      <c r="AEA113" s="11"/>
+      <c r="AEB113" s="11"/>
+      <c r="AEC113" s="11"/>
+      <c r="AED113" s="11"/>
+      <c r="AEE113" s="11"/>
+      <c r="AEF113" s="11"/>
+      <c r="AEG113" s="11"/>
+      <c r="AEH113" s="11"/>
+      <c r="AEI113" s="11"/>
+      <c r="AEJ113" s="11"/>
+      <c r="AEK113" s="11"/>
+      <c r="AEL113" s="11"/>
+      <c r="AEM113" s="11"/>
+      <c r="AEN113" s="11"/>
+      <c r="AEO113" s="11"/>
+      <c r="AEP113" s="11"/>
+      <c r="AEQ113" s="11"/>
+      <c r="AER113" s="11"/>
+      <c r="AES113" s="11"/>
+      <c r="AET113" s="11"/>
+      <c r="AEU113" s="11"/>
+      <c r="AEV113" s="11"/>
+      <c r="AEW113" s="11"/>
+      <c r="AEX113" s="11"/>
+      <c r="AEY113" s="11"/>
+      <c r="AEZ113" s="11"/>
+      <c r="AFA113" s="11"/>
+      <c r="AFB113" s="11"/>
+      <c r="AFC113" s="11"/>
+      <c r="AFD113" s="11"/>
+      <c r="AFE113" s="11"/>
+      <c r="AFF113" s="11"/>
+      <c r="AFG113" s="11"/>
+      <c r="AFH113" s="11"/>
+      <c r="AFI113" s="11"/>
+      <c r="AFJ113" s="11"/>
+      <c r="AFK113" s="11"/>
+      <c r="AFL113" s="11"/>
+      <c r="AFM113" s="11"/>
+      <c r="AFN113" s="11"/>
+      <c r="AFO113" s="11"/>
+      <c r="AFP113" s="11"/>
+      <c r="AFQ113" s="11"/>
+      <c r="AFR113" s="11"/>
+      <c r="AFS113" s="11"/>
+      <c r="AFT113" s="11"/>
+      <c r="AFU113" s="11"/>
+      <c r="AFV113" s="11"/>
+      <c r="AFW113" s="11"/>
+      <c r="AFX113" s="11"/>
+      <c r="AFY113" s="11"/>
+      <c r="AFZ113" s="11"/>
+      <c r="AGA113" s="11"/>
+      <c r="AGB113" s="11"/>
+      <c r="AGC113" s="11"/>
+      <c r="AGD113" s="11"/>
+      <c r="AGE113" s="11"/>
+      <c r="AGF113" s="11"/>
+      <c r="AGG113" s="11"/>
+      <c r="AGH113" s="11"/>
+      <c r="AGI113" s="11"/>
+      <c r="AGJ113" s="11"/>
+      <c r="AGK113" s="11"/>
+      <c r="AGL113" s="11"/>
+      <c r="AGM113" s="11"/>
+      <c r="AGN113" s="11"/>
+      <c r="AGO113" s="11"/>
+      <c r="AGP113" s="11"/>
+      <c r="AGQ113" s="11"/>
+      <c r="AGR113" s="11"/>
+      <c r="AGS113" s="11"/>
+      <c r="AGT113" s="11"/>
+      <c r="AGU113" s="11"/>
+      <c r="AGV113" s="11"/>
+      <c r="AGW113" s="11"/>
+      <c r="AGX113" s="11"/>
+      <c r="AGY113" s="11"/>
+      <c r="AGZ113" s="11"/>
+      <c r="AHA113" s="11"/>
+      <c r="AHB113" s="11"/>
+      <c r="AHC113" s="11"/>
+      <c r="AHD113" s="11"/>
+      <c r="AHE113" s="11"/>
+      <c r="AHF113" s="11"/>
+      <c r="AHG113" s="11"/>
+      <c r="AHH113" s="11"/>
+      <c r="AHI113" s="11"/>
+      <c r="AHJ113" s="11"/>
+      <c r="AHK113" s="11"/>
+      <c r="AHL113" s="11"/>
+      <c r="AHM113" s="11"/>
+      <c r="AHN113" s="11"/>
+      <c r="AHO113" s="11"/>
+      <c r="AHP113" s="11"/>
+      <c r="AHQ113" s="11"/>
+      <c r="AHR113" s="11"/>
+      <c r="AHS113" s="11"/>
+      <c r="AHT113" s="11"/>
+      <c r="AHU113" s="11"/>
+      <c r="AHV113" s="11"/>
+      <c r="AHW113" s="11"/>
+      <c r="AHX113" s="11"/>
+      <c r="AHY113" s="11"/>
+      <c r="AHZ113" s="11"/>
+      <c r="AIA113" s="11"/>
+      <c r="AIB113" s="11"/>
+      <c r="AIC113" s="11"/>
+      <c r="AID113" s="11"/>
+      <c r="AIE113" s="11"/>
+      <c r="AIF113" s="11"/>
+      <c r="AIG113" s="11"/>
+      <c r="AIH113" s="11"/>
+      <c r="AII113" s="11"/>
+      <c r="AIJ113" s="11"/>
+      <c r="AIK113" s="11"/>
+      <c r="AIL113" s="11"/>
+      <c r="AIM113" s="11"/>
+      <c r="AIN113" s="11"/>
+      <c r="AIO113" s="11"/>
+      <c r="AIP113" s="11"/>
+      <c r="AIQ113" s="11"/>
+      <c r="AIR113" s="11"/>
+      <c r="AIS113" s="11"/>
+      <c r="AIT113" s="11"/>
+      <c r="AIU113" s="11"/>
+      <c r="AIV113" s="11"/>
+      <c r="AIW113" s="11"/>
+      <c r="AIX113" s="11"/>
+      <c r="AIY113" s="11"/>
+      <c r="AIZ113" s="11"/>
+      <c r="AJA113" s="11"/>
+      <c r="AJB113" s="11"/>
+      <c r="AJC113" s="11"/>
+      <c r="AJD113" s="11"/>
+      <c r="AJE113" s="11"/>
+      <c r="AJF113" s="11"/>
+      <c r="AJG113" s="11"/>
+      <c r="AJH113" s="11"/>
+      <c r="AJI113" s="11"/>
+      <c r="AJJ113" s="11"/>
+      <c r="AJK113" s="11"/>
+      <c r="AJL113" s="11"/>
+      <c r="AJM113" s="11"/>
+      <c r="AJN113" s="11"/>
+      <c r="AJO113" s="11"/>
+      <c r="AJP113" s="11"/>
+      <c r="AJQ113" s="11"/>
+      <c r="AJR113" s="11"/>
+      <c r="AJS113" s="11"/>
+      <c r="AJT113" s="11"/>
+      <c r="AJU113" s="11"/>
+      <c r="AJV113" s="11"/>
+      <c r="AJW113" s="11"/>
+      <c r="AJX113" s="11"/>
+      <c r="AJY113" s="11"/>
+      <c r="AJZ113" s="11"/>
+      <c r="AKA113" s="11"/>
+      <c r="AKB113" s="11"/>
+      <c r="AKC113" s="11"/>
+      <c r="AKD113" s="11"/>
+      <c r="AKE113" s="11"/>
+      <c r="AKF113" s="11"/>
+      <c r="AKG113" s="11"/>
+      <c r="AKH113" s="11"/>
+      <c r="AKI113" s="11"/>
+      <c r="AKJ113" s="11"/>
+      <c r="AKK113" s="11"/>
+      <c r="AKL113" s="11"/>
+      <c r="AKM113" s="11"/>
+      <c r="AKN113" s="11"/>
+      <c r="AKO113" s="11"/>
+      <c r="AKP113" s="11"/>
+      <c r="AKQ113" s="11"/>
+      <c r="AKR113" s="11"/>
+      <c r="AKS113" s="11"/>
+      <c r="AKT113" s="11"/>
+      <c r="AKU113" s="11"/>
+      <c r="AKV113" s="11"/>
+      <c r="AKW113" s="11"/>
+      <c r="AKX113" s="11"/>
+      <c r="AKY113" s="11"/>
+      <c r="AKZ113" s="11"/>
+      <c r="ALA113" s="11"/>
+      <c r="ALB113" s="11"/>
+      <c r="ALC113" s="11"/>
+      <c r="ALD113" s="11"/>
+      <c r="ALE113" s="11"/>
+      <c r="ALF113" s="11"/>
+      <c r="ALG113" s="11"/>
+      <c r="ALH113" s="11"/>
+      <c r="ALI113" s="11"/>
+      <c r="ALJ113" s="11"/>
+      <c r="ALK113" s="11"/>
+      <c r="ALL113" s="11"/>
+      <c r="ALM113" s="11"/>
+      <c r="ALN113" s="11"/>
+      <c r="ALO113" s="11"/>
+      <c r="ALP113" s="11"/>
+      <c r="ALQ113" s="11"/>
+      <c r="ALR113" s="11"/>
+      <c r="ALS113" s="11"/>
+      <c r="ALT113" s="11"/>
+      <c r="ALU113" s="11"/>
+      <c r="ALV113" s="11"/>
+      <c r="ALW113" s="11"/>
+      <c r="ALX113" s="11"/>
+      <c r="ALY113" s="11"/>
+      <c r="ALZ113" s="11"/>
+      <c r="AMA113" s="11"/>
+      <c r="AMB113" s="11"/>
+      <c r="AMC113" s="11"/>
+      <c r="AMD113" s="11"/>
+      <c r="AME113" s="11"/>
+      <c r="AMF113" s="11"/>
+      <c r="AMG113" s="11"/>
+      <c r="AMH113" s="11"/>
+      <c r="AMI113" s="11"/>
+      <c r="AMJ113" s="11"/>
+    </row>
+    <row r="114" s="11" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="B114" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="C114" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="E114" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="F114" s="11" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="115" s="11" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="B115" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="C115" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="E115" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="F115" s="11" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="116" s="11" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="B116" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="C116" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="E116" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="F116" s="11" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="117" s="11" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="B117" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="C117" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="E117" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="F117" s="11" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="118" s="11" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="B118" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="C118" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="E118" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="F118" s="11" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="119" s="11" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="B119" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="C119" s="13" t="s">
         <v>234</v>
       </c>
-      <c r="E113" s="11" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="1" t="s">
+      <c r="E119" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="F119" s="11" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="120" s="11" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="B120" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="C120" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="E120" s="16" t="s">
+        <v>254</v>
+      </c>
+      <c r="F120" s="11" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="121" s="11" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="B121" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="C121" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="E121" s="16" t="s">
+        <v>257</v>
+      </c>
+      <c r="F121" s="11" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="122" s="11" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="B122" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="C122" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="E122" s="16" t="s">
+        <v>260</v>
+      </c>
+      <c r="F122" s="11" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="123" s="11" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="B123" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="C123" s="18" t="s">
+        <v>262</v>
+      </c>
+      <c r="E123" s="16" t="s">
+        <v>263</v>
+      </c>
+      <c r="F123" s="11" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="124" s="11" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="B124" s="11" t="s">
+        <v>264</v>
+      </c>
+      <c r="C124" s="18" t="s">
+        <v>265</v>
+      </c>
+      <c r="E124" s="16" t="s">
+        <v>266</v>
+      </c>
+      <c r="F124" s="11" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="125" s="11" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C125" s="13"/>
+    </row>
+    <row r="126" s="11" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C126" s="13"/>
+    </row>
+    <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -3426,49 +4799,49 @@
   </sheetPr>
   <dimension ref="A1:C58"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H50" activeCellId="0" sqref="H50"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B30" activeCellId="0" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="13.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="22.95"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="17.32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="16.67"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="4" style="1" width="11.58"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="17" t="s">
-        <v>235</v>
-      </c>
-      <c r="B1" s="17" t="s">
+      <c r="A1" s="19" t="s">
+        <v>267</v>
+      </c>
+      <c r="B1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="19" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>236</v>
+        <v>268</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>98</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>236</v>
+        <v>268</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>238</v>
+        <v>270</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>239</v>
+        <v>271</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3476,10 +4849,10 @@
         <v>118</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>240</v>
+        <v>272</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>241</v>
+        <v>273</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3487,10 +4860,10 @@
         <v>126</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>242</v>
+        <v>274</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>243</v>
+        <v>265</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3498,10 +4871,10 @@
         <v>126</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>244</v>
+        <v>275</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>245</v>
+        <v>262</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3509,10 +4882,10 @@
         <v>126</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>246</v>
+        <v>276</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>247</v>
+        <v>259</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3520,10 +4893,10 @@
         <v>126</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>248</v>
+        <v>277</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3531,10 +4904,10 @@
         <v>126</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>250</v>
+        <v>278</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>251</v>
+        <v>200</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3542,10 +4915,10 @@
         <v>126</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>252</v>
+        <v>279</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>253</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3553,10 +4926,10 @@
         <v>126</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>254</v>
+        <v>280</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>255</v>
+        <v>234</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3564,43 +4937,43 @@
         <v>126</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>256</v>
+        <v>281</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>257</v>
+        <v>219</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="18" t="s">
+      <c r="A16" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="B16" s="18" t="s">
-        <v>258</v>
-      </c>
-      <c r="C16" s="18" t="s">
-        <v>259</v>
+      <c r="B16" s="20" t="s">
+        <v>282</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="18" t="s">
+      <c r="A17" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="B17" s="18" t="s">
-        <v>260</v>
-      </c>
-      <c r="C17" s="18" t="s">
-        <v>261</v>
+      <c r="B17" s="20" t="s">
+        <v>284</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="18" t="s">
+      <c r="A18" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="B18" s="18" t="s">
-        <v>262</v>
-      </c>
-      <c r="C18" s="18" t="s">
-        <v>263</v>
+      <c r="B18" s="20" t="s">
+        <v>286</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3608,10 +4981,10 @@
         <v>126</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>264</v>
+        <v>287</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>265</v>
+        <v>288</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3619,296 +4992,296 @@
         <v>126</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>266</v>
+        <v>289</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>267</v>
+        <v>209</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>268</v>
+        <v>290</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>252</v>
+        <v>279</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>253</v>
+        <v>214</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>268</v>
+        <v>290</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>254</v>
+        <v>280</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>255</v>
+        <v>234</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>268</v>
+        <v>290</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>256</v>
+        <v>281</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>257</v>
+        <v>219</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>268</v>
+        <v>290</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>258</v>
+        <v>282</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>259</v>
+        <v>283</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>268</v>
+        <v>290</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>260</v>
+        <v>284</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>261</v>
+        <v>285</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>268</v>
+        <v>290</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>262</v>
+        <v>286</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>263</v>
+        <v>224</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>268</v>
+        <v>290</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>264</v>
+        <v>287</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>265</v>
+        <v>288</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>268</v>
+        <v>290</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>266</v>
+        <v>289</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>267</v>
+        <v>209</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>268</v>
+        <v>290</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>269</v>
+        <v>291</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>243</v>
+        <v>265</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>268</v>
+        <v>290</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>244</v>
+        <v>275</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>245</v>
+        <v>262</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>268</v>
+        <v>290</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>270</v>
+        <v>292</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>247</v>
+        <v>259</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>268</v>
+        <v>290</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>248</v>
+        <v>277</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>268</v>
+        <v>290</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>250</v>
+        <v>278</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>251</v>
+        <v>200</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>271</v>
+        <v>293</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>252</v>
+        <v>279</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>253</v>
+        <v>214</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>271</v>
+        <v>293</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>254</v>
+        <v>280</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>255</v>
+        <v>234</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>271</v>
+        <v>293</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>256</v>
+        <v>281</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>257</v>
+        <v>219</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>271</v>
+        <v>293</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>258</v>
+        <v>282</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>259</v>
+        <v>283</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>271</v>
+        <v>293</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>260</v>
+        <v>284</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>261</v>
+        <v>285</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>271</v>
+        <v>293</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>262</v>
+        <v>286</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>263</v>
+        <v>224</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>271</v>
+        <v>293</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>264</v>
+        <v>287</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>265</v>
+        <v>288</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>271</v>
+        <v>293</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>266</v>
+        <v>289</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>267</v>
+        <v>209</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>271</v>
+        <v>293</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>269</v>
+        <v>291</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>243</v>
+        <v>265</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>271</v>
+        <v>293</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>244</v>
+        <v>275</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>245</v>
+        <v>262</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>271</v>
+        <v>293</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>270</v>
+        <v>292</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>247</v>
+        <v>259</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>271</v>
+        <v>293</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>248</v>
+        <v>277</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>271</v>
+        <v>293</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>250</v>
+        <v>278</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>251</v>
+        <v>200</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3916,10 +5289,10 @@
         <v>64</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>272</v>
+        <v>294</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>273</v>
+        <v>295</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3927,32 +5300,32 @@
         <v>64</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>274</v>
+        <v>296</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>275</v>
+        <v>297</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>276</v>
+        <v>298</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>277</v>
+        <v>299</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>278</v>
+        <v>300</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>276</v>
+        <v>298</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>279</v>
+        <v>301</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>280</v>
+        <v>302</v>
       </c>
     </row>
   </sheetData>
@@ -3979,43 +5352,43 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="19" width="18.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="19" width="20.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="21" width="18.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="21" width="20.25"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="20" t="s">
-        <v>281</v>
-      </c>
-      <c r="B1" s="20" t="s">
-        <v>282</v>
-      </c>
-      <c r="C1" s="20" t="s">
-        <v>283</v>
-      </c>
-      <c r="D1" s="20" t="s">
-        <v>284</v>
-      </c>
-      <c r="E1" s="20" t="s">
-        <v>285</v>
+      <c r="A1" s="22" t="s">
+        <v>303</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>304</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>305</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>306</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="21" t="s">
-        <v>286</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>287</v>
-      </c>
-      <c r="C2" s="22" t="n">
+      <c r="A2" s="23" t="s">
+        <v>308</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>309</v>
+      </c>
+      <c r="C2" s="24" t="n">
         <f aca="true">NOW()</f>
-        <v>45425.5837396989</v>
-      </c>
-      <c r="D2" s="19" t="s">
-        <v>288</v>
-      </c>
-      <c r="E2" s="19" t="s">
-        <v>289</v>
+        <v>45573.4594030096</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>310</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>311</v>
       </c>
     </row>
   </sheetData>
